--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/sq_AL.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/sq_AL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5261">
   <si>
     <t>translation_group</t>
   </si>
@@ -15754,12 +15754,6 @@
   </si>
   <si>
     <t xml:space="preserve"> njoftimet</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -16146,17 +16140,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54803,18 +54797,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5245</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5246</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54824,10 +54810,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5247</v>
+        <v>5245</v>
       </c>
       <c r="D2763" t="s">
-        <v>5248</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54838,10 +54824,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5249</v>
+        <v>5247</v>
       </c>
       <c r="D2764" t="s">
-        <v>5250</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54852,10 +54838,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
       <c r="D2765" t="s">
-        <v>5252</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54866,10 +54852,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5253</v>
+        <v>5251</v>
       </c>
       <c r="D2766" t="s">
-        <v>5254</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54880,10 +54866,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="D2767" t="s">
-        <v>5256</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54894,10 +54880,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5257</v>
+        <v>5255</v>
       </c>
       <c r="D2768" t="s">
-        <v>5258</v>
+        <v>5256</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54908,10 +54894,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5259</v>
+        <v>5257</v>
       </c>
       <c r="D2769" t="s">
-        <v>5260</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54950,11 +54936,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5261</v>
+        <v>5259</v>
       </c>
       <c r="D2772" t="s">
-        <v>5262</v>
-      </c>
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/sq_AL.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/sq_AL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5931">
   <si>
     <t>translation_group</t>
   </si>
@@ -10196,7 +10196,7 @@
     <t>Cilësimet e SEO</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>Plotësoni fushat për rezultate maksimale kur gjeni faqen tuaj në motorët e kërkimit.</t>
@@ -17224,6 +17224,604 @@
   </si>
   <si>
     <t>Ofruesit e postës</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Mirësevini në Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Përdorni Microweber për të ndërtuar faqen tuaj në internet, dyqan online ose blog.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Krijoni dhe modifikoni përmbajtje, shisni në internet, menaxhoni porositë dhe klientët.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Hiq</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Ju jeni duke përdorur këtë model.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>Ndryshimi do të ndikojë vetëm në faqen aktuale.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Lejoni shabllone të shumta</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Nëse lejoni shabllone të shumta, do të keni mundësi të përdorni shabllone të ndryshme kur krijoni faqe të reja.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Cilësimet e faqes në internet të postës elektronike të sistemit</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Dorëzoni mesazhe në lidhje me regjistrimin e ri, rivendosjen e fjalëkalimit dhe funksione të tjera të sistemit.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>Nga adresa e postës elektronike</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>P.sh. Emri juaj i faqes në internet</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Cilësimet e përgjithshme të ofruesit të postës elektronike</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Konfiguroni ofruesin tuaj të postës elektronike.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Ofruesi i përgjithshëm i postës elektronike do të dërgojë të gjitha mesazhet në lidhje me faqen e internetit. Përfshirë mesazhet e sistemit dhe mesazhet e formës së kontaktit.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Logoja e faqes në internet</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Zgjidhni një logo për faqen tuaj te internetit.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Ngarko logon</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Uebfaqja Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Ndryshimi i gjuhës së paracaktuar ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Pastroje memorien e përkohshme..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Instaloni Modulin Shumë Gjuhësh</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Përdoruesit e regjistrimit mund të marrin automatikisht një email automatik nga ju. Shihni cilësimet dhe postoni mesazhet tuaja.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Dërgoni email në regjistrimin e ri të përdoruesve te përdoruesit e administratorit</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>A doni që administratorët të marrin një e-mail kur regjistrohet përdoruesi i ri?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber është ndërtues falas uebfaqesh dhe CMS me burim të hapur me tërheqje dhe lëshim. Undershtë nën licencën e MIT dhe ne përdorim kornizën Laravel PHP</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Një Slider</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Transporti në adresë</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Marrja nga adresa</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Parametrat globale</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>Integrimet e postës elektronike</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Ju nuk keni sistem të postës elektronike dhe konfigurimit të smtp.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Vendosni këtu cilësimet e sistemit tuaj.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Cilësimet globale të formës së kontaktit</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>Opsionet e dërgimit të postës elektronike</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Dërguesi global</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Përdorni cilësimet e dërguesit të personalizuar</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Përdorni cilësimet e dërguesit të personalizuar për format globale të kontaktit.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>Si parazgjedhje, ne do të përdorim cilësimet e postës elektronike të sistemit të faqes në internet.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Mund të ndryshoni cilësimet e postës elektronike të sistemit këtu.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Marrësit Global</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Dërgoni të dhënat e formave të kontaktit tek marrësit globalë kur të dorëzohet</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>Për adresat e postës elektronike</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>Adresa e postës elektronike të marrësve të ndara me koma.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Kontaktoni me ofruesin tuaj të pritjes për të aktivizuar shtrirjen PHP SOAP.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Elementet</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2 muaj me pare</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Hiq favicon</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Me porosi</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>ProduktetV2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Afati kohor</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Etiketë e bardhë WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Modeli i modulit ka ndryshuar</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Versione të përmbajtjes</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Paraqitjet dhe elementet e paracaktuara</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Lista e Shigjetave</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Lista e kontrolluar</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Teksti i sfondit</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Titulli me Tekst</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Ikonë me Tekst</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Dy kolona teksti</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Dy kolona teksti me ikonë dhe titull</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Imazh me Titull dhe Tekst</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Teksti me figurë dhe titull</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Aktivizo komentet</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Cilësimet e Captcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konfiguroni preferencat tuaja captcha nga </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Cilësimet aktuale të formës së kontaktit</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Emri i formës së kontaktit</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Cili është emri i kësaj forme kontakti?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Marrësit</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Dërgoni të dhënat e formularit të kontaktit te marrësit me porosi kur të dorëzohen</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Përdorni cilësimet e marrësve të personalizuar për formën aktuale të kontaktit.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Si parazgjedhje, ne do të përdorim cilësimet globale të formës së kontaktit.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Mund të ndryshoni cilësimet globale të formës së kontaktit këtu.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Përgjigju automatikisht mesazhit përdoruesit</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Aktivizo mesazhin e përgjigjes automatike te përdoruesi</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Lejoni përdoruesit të marrin "Faleminderit email pas pajtimit".</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Përgjigju automatikisht subjektit</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Përgjigjen automatikisht e-mail dërguar përsëri te përdoruesi</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Përgjigju automatikisht dërguesit me porosi</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Përdorni cilësimet e dërguesit të personalizuar për formën aktuale të kontaktit.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Përgjigjuni automatikisht nga adresa e postës elektronike</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Përgjigju automatikisht nga emri</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Përgjigju automatikisht përgjigjes në email</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Kur përdoruesi merr mesazhin e përgjigjes automatike, ai mund të përgjigjet përsëri për t'iu përgjigjur me email.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Përgjigjuni automatikisht bashkangjiturve të postës elektronike</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>Nëse dëshironi të bashkangjitni imazhe dhe og, duhet t'i ngarkoni ato në galeri nga 'Shto media'</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Nuk keni ende ndonjë postim</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Krijoni postimin tuaj të parë tani.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Krijoni një Postim</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Si të shkruani përshkrime të produkteve që shesin
+                                                    Një nga gjërat më të mira që mund të bëni për ta bërë dyqanin tuaj të suksesshëm është të investoni pak kohë në shkrimin e përshkrimeve të shkëlqyera të produkteve. Ju dëshironi të ofroni informacione të hollësishme por koncize që do të joshin klientët e mundshëm për të blerë.
+                                                    Mendoni si një konsumator
+                                                    Mendoni për atë që ju si konsumator dëshironi të dini, pastaj përfshini ato veçori në përshkrimin tuaj. Për rrobat: materiale dhe përshtatje. Për ushqimin: përbërësit dhe mënyra se si është përgatitur. Plumbat janë miqtë tuaj kur rendisni veçoritë
+                                                   - përpiquni të
+                                                            kufizoni secilën në 5-8 fjalë.</t>
   </si>
 </sst>
 </file>
@@ -17562,7 +18160,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67870,6 +68468,1757 @@
         <v>5734</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5736</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5737</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5738</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5740</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5741</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5742</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5743</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5745</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5747</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5748</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5749</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5755</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5763</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5765</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5767</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5771</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5775</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>3845</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5782</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5783</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5784</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5786</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5787</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5788</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5789</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5790</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5791</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5792</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5793</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5794</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5798</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5800</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5801</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5802</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5803</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5804</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5805</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5806</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5807</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5808</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5809</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5810</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5811</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5812</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5813</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5814</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5816</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5817</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5818</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5819</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5820</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5821</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5822</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5823</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5824</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5825</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5826</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5827</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5828</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>3230</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5832</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5833</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5834</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5835</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5836</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5836</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5837</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5838</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5839</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5840</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5841</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5842</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5843</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5844</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3328</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5850</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5851</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5852</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5853</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5854</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5855</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5856</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5857</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5858</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5859</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5860</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5861</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5862</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5863</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5864</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5865</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5866</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5867</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5868</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5869</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5870</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5871</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5872</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5874</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5877</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4964</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5878</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5879</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5881</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5882</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5883</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5884</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5885</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5886</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5887</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5888</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5889</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5890</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5891</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5892</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5893</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5894</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5895</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5898</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5899</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5902</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>3132</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5904</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5905</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5906</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5907</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5908</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5909</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5910</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5911</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5914</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5915</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5916</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5917</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5918</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5919</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5920</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>5921</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5922</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5923</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5924</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5925</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5926</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5927</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5928</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5930</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/sq_AL.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/sq_AL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6229">
   <si>
     <t>translation_group</t>
   </si>
@@ -17822,6 +17822,900 @@
                                                     Mendoni për atë që ju si konsumator dëshironi të dini, pastaj përfshini ato veçori në përshkrimin tuaj. Për rrobat: materiale dhe përshtatje. Për ushqimin: përbërësit dhe mënyra se si është përgatitur. Plumbat janë miqtë tuaj kur rendisni veçoritë
                                                    - përpiquni të
                                                             kufizoni secilën në 5-8 fjalë.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Gjuha e administratorit</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Redaktori i kodit</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>tituj</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Titujt 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Titujt 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Titujt 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Titujt 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Titujt 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Titujt 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Titujt 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Titujt 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>bllok teksti</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Blloku i tekstit 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Blloku i tekstit 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Blloku i tekstit 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Blloku i tekstit 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Blloku i tekstit 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Blloku i tekstit 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Blloku i tekstit 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Blloku i tekstit 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Blloku i tekstit 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Blloku i tekstit 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Blloku i tekstit 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Blloku i tekstit 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Blloku i tekstit 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Blloku i tekstit 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Blloku i tekstit 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>veçoritë</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Karakteristikat 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Karakteristikat 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Karakteristikat 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Karakteristikat 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>rrjete</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Menuja - lëkurë-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Menu - lëkurë-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Menu - lëkurë-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Menu - lëkurë-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>Menu - lëkurë-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>fundoret</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Fundet 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Fundet 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Fundet 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Fundet 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>tjera</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Çmimi 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Paraqitjet e parazgjedhura</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Nuk ka përmbajtje këtu</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Fushat e personalizuara ruhen</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Fushat ekzistuese</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Zgjidhni nga fushat tuaja ekzistuese më poshtë</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shtoni fusha të reja</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Shtoni një fushë të re të personalizuar nga lista e mëposhtme</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Fushat tuaja</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Lista e fushave tuaja të personalizuara të shtuara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">përsërisni vertikalisht </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Familja e shkronjave</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Mbivendosja</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Modaliteti i përzierjes</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Enë</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Lloji i kontejnerit</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Animacionet</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Rimbushja e stileve</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Lidhje me</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Pako paraprake</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Përdorni</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Aktuale</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Porosit sërish</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sistemi</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Ridrejtimi i shfletuesit</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integrimi</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Përditësues i pavarur</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>Ju duhet çelësi i licencës për të instaluar këtë paketë</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Kjo paketë është premium dhe duhet të keni një çelës licence për ta instaluar</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Ju duhet çelësi i licencës</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Licenca u aktivizua</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Faqja po rifreskohet</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Licenca nuk është aktivizuar</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Përditësimet e sistemit</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Kontrolloni për përditësime të sistemit</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Kthehu në listë</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>Kategoria duhet të ketë një emër</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>A është kategoria e fshehur?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Nëse e vendosni këtë në PO, kjo kategori do të fshihet nga faqja e internetit</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Duke përmendur</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Karroca juaj është bosh.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Rezultatet e gjetura</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Nëse zgjidhni Përqindjen nga fusha e përzgjedhur, ajo do të llogaritet automatikisht nga çmimi dhe çmimi i ofertës së produktit.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>custom.multillanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>vlerat.multilanguage.title.sq.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>Regjistrohu</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Vazhdoni te Checkout</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Shkarko fund</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Duke u shfaqur</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>rezultat(et)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Titulli i faqes - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Titulli i faqes - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Kushtet e përdorimit</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Dorëzimi dhe kthimi</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>Informacioni i transportit</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>Rreth 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Rreth 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Rreth 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Shtëpia 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Shtëpia 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Duhet të klikoni butonin aplikoni shabllonin për të ndryshuar shabllonin tuaj</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Kërko sipas kritereve</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Data nga</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Vendosni urdhrat nga data</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Data në</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Vendosni urdhrat deri më sot</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Shuma e porosisë nga</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Trego porosinë me shumën minimale</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Shuma e porosisë në</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Trego porosinë me shumën maksimale</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Kërko sipas produkteve...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Kërko sipas produkteve</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Statusi i pagesës</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Kërkim falas me telefon, emër, email etj...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Paraqisni këtë kriter</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Rivendos filtrin</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Eksporto të gjitha</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Zgjidhni renditjen</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Data e porosisë</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[E re &gt; e vjetër]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[E vjetër &gt; e re]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[I lartë &gt; i ulët]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[I ulët &gt; i lartë]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>përkthimet nga moduli multilnaguage janë gjetur në bazën tuaj të të dhënave.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Paralajmërim! Ndryshimi i gjuhës së paracaktuar mund të prishë përkthimet në faqen tuaj.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Je i sigurt që dëshiron të vazhdosh?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Paralajmërim! Ndryshimi i gjuhës së paracaktuar ndoshta do të prishë faqen tuaj.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Detajet e transportit</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>Lloji i transportit</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>porosia nuk është përfunduar ende</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>porosia është e përfunduar</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Krijuar në</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>Përditësuar në</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vështrim i shpejtë </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Zëvendësoni vlerat e gjuhës</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Përkthimet janë të importuara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Përkthimet nuk u gjetën në bazën e të dhënave. Dëshironi të importoni përkthime? </t>
   </si>
 </sst>
 </file>
@@ -17845,10 +18739,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17859,7 +18750,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18160,7 +19051,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70222,8 +71113,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>4515</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5934</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5935</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5936</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5940</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5944</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5946</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5952</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5956</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5961</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5962</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5971</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5978</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5981</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5985</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5986</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5987</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>5988</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5992</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5996</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>5998</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>5999</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>6001</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>6002</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>6003</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>6004</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>6005</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>6006</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>6007</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>6008</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>6009</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>6010</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>6011</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>6012</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>6013</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>6014</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>6015</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>6016</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>6017</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>6019</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>6021</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>6022</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>6022</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>6023</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>6023</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>4594</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>6026</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>6028</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>6029</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>6030</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>6032</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>6036</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>6039</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>6040</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>6041</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>6042</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>6043</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>6044</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>6046</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>6048</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>6050</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>6051</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>6052</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>6054</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>6055</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>6056</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6058</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6059</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6060</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6062</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6063</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6064</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6065</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6065</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6066</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6067</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6068</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6069</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6070</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6071</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6072</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6073</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6074</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6075</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6076</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6077</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6079</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6080</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6081</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6083</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6085</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6086</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6087</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>6092</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6093</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6094</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6095</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6096</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6097</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6098</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6099</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6100</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6102</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6103</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6104</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6105</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6106</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6107</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6108</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6109</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5928</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6111</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6112</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6113</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6114</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6115</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6116</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6117</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6115</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6118</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6119</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6121</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6122</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6122</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6123</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6124</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6125</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6126</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6127</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6128</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6129</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6130</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6131</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6132</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6133</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6134</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6135</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6136</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6137</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6138</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6139</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6140</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6141</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>6142</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6143</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6144</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6145</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6146</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6147</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6148</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6149</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6150</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6151</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6152</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6153</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6155</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6156</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6158</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6159</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6160</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6161</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6162</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6163</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6164</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6165</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6166</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6167</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6168</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6169</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6170</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6171</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6172</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6173</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6174</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6175</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6176</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6177</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6178</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6179</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6180</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6181</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6182</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6183</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6184</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6185</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6186</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6187</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6188</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6189</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6190</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6191</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6192</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6193</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6194</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6195</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6196</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6197</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6198</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6199</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6200</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6201</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6202</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6203</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6204</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6205</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6206</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6207</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6208</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6209</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6210</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6211</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>6212</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6213</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6214</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6215</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6216</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6217</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6218</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6219</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6220</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6221</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6222</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6223</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6224</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6225</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6226</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6227</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6228</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70235,5 +73760,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/sq_AL.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/sq_AL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6045">
   <si>
     <t>translation_group</t>
   </si>
@@ -10199,7 +10199,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>Plotësoni fushat për rezultate maksimale kur gjeni faqen tuaj në motorët e kërkimit.</t>
+    <t>Plotësoni fushat për rezultate maksimale kur gjeni faqen tuaj të internetit në motorët e kërkimit.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17229,13 +17229,13 @@
     <t>Welcome to Microweber</t>
   </si>
   <si>
-    <t>Mirësevini në Microweber</t>
+    <t>Mirë se vini në Microweber</t>
   </si>
   <si>
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>Përdorni Microweber për të ndërtuar faqen tuaj në internet, dyqan online ose blog.</t>
+    <t>Përdorni Microweber për të ndërtuar faqen tuaj të internetit, dyqanin online ose blogun tuaj.</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
@@ -17253,52 +17253,55 @@
     <t>Abandoned cart's</t>
   </si>
   <si>
+    <t>Karroca të braktisura</t>
+  </si>
+  <si>
     <t>You are using this template.</t>
   </si>
   <si>
-    <t>Ju jeni duke përdorur këtë model.</t>
+    <t>Ju jeni duke përdorur këtë shabllon.</t>
   </si>
   <si>
     <t>The change will affect only the current page.</t>
   </si>
   <si>
-    <t>Ndryshimi do të ndikojë vetëm në faqen aktuale.</t>
+    <t>Ndryshimi do të prekë vetëm faqen aktuale.</t>
   </si>
   <si>
     <t>Allow multiple templates</t>
   </si>
   <si>
-    <t>Lejoni shabllone të shumta</t>
+    <t>Lejo shabllone të shumta</t>
   </si>
   <si>
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>Nëse lejoni shabllone të shumta, do të keni mundësi të përdorni shabllone të ndryshme kur krijoni faqe të reja.</t>
+    <t>Nëse lejoni disa shabllone, do të jeni në gjendje të përdorni shabllone të ndryshëm kur krijoni një faqe të re.</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>Cilësimet e faqes në internet të postës elektronike të sistemit</t>
+    <t>Cilësimet e faqes së internetit të postës elektronike të sistemit</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Dorëzoni mesazhe në lidhje me regjistrimin e ri, rivendosjen e fjalëkalimit dhe funksione të tjera të sistemit.</t>
+    <t>Dërgoni mesazhe që lidhen me regjistrimin e ri, rivendosjen e fjalëkalimit dhe funksionalitete të tjera të sistemit.</t>
   </si>
   <si>
     <t>From e-mail address</t>
   </si>
   <si>
-    <t>Nga adresa e postës elektronike</t>
+    <t>Nga adresa e emailit</t>
   </si>
   <si>
     <t>Ex. Your Website Name</t>
   </si>
   <si>
-    <t>P.sh. Emri juaj i faqes në internet</t>
+    <t>p.sh. Emri i faqes suaj të internetit</t>
   </si>
   <si>
     <t>General e-mail provider settings</t>
@@ -17310,25 +17313,25 @@
     <t>Set up your email provider.</t>
   </si>
   <si>
-    <t>Konfiguroni ofruesin tuaj të postës elektronike.</t>
+    <t>Vendosni ofruesin tuaj të emailit.</t>
   </si>
   <si>
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>Ofruesi i përgjithshëm i postës elektronike do të dërgojë të gjitha mesazhet në lidhje me faqen e internetit. Përfshirë mesazhet e sistemit dhe mesazhet e formës së kontaktit.</t>
+    <t>Ofruesi i përgjithshëm i postës elektronike do të dërgojë të gjitha mesazhet që lidhen me faqen e internetit. Përfshirë mesazhet e sistemit dhe mesazhet e formularit të kontaktit.</t>
   </si>
   <si>
     <t>Website Logo</t>
   </si>
   <si>
-    <t>Logoja e faqes në internet</t>
+    <t>Logo e faqes së internetit</t>
   </si>
   <si>
     <t>Select an logo for your website.</t>
   </si>
   <si>
-    <t>Zgjidhni një logo për faqen tuaj te internetit.</t>
+    <t>Zgjidhni një logo për faqen tuaj të internetit.</t>
   </si>
   <si>
     <t>Upload logo</t>
@@ -17340,13 +17343,13 @@
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>Uebfaqja Favicon</t>
+    <t>Favicon i faqes në internet</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Ndryshimi i gjuhës së paracaktuar ..</t>
+    <t>Po ndryshon gjuhën e paracaktuar..</t>
   </si>
   <si>
     <t>Clear cache..</t>
@@ -17358,40 +17361,43 @@
     <t>Install Multilanguage Module</t>
   </si>
   <si>
-    <t>Instaloni Modulin Shumë Gjuhësh</t>
+    <t>Instaloni modulin shumëgjuhësh</t>
   </si>
   <si>
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
+    <t>Përdoruesit mund të regjistrohen me email të përkohshëm si - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Përdoruesit e regjistrimit mund të marrin automatikisht një email automatik nga ju. Shihni cilësimet dhe postoni mesazhet tuaja.</t>
+    <t>Përdoruesit e regjistruar mund të marrin automatikisht një email automatik nga ju. Shikoni cilësimet dhe postoni mesazhet tuaja.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Dërgoni email në regjistrimin e ri të përdoruesve te përdoruesit e administratorit</t>
+    <t>Dërgoni email për regjistrimin e përdoruesit të ri për përdoruesit e administratorit</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>A doni që administratorët të marrin një e-mail kur regjistrohet përdoruesi i ri?</t>
+    <t>Dëshironi që administratorët të marrin një e-mail kur regjistrohet përdoruesi i ri?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber është ndërtues falas uebfaqesh dhe CMS me burim të hapur me tërheqje dhe lëshim. Undershtë nën licencën e MIT dhe ne përdorim kornizën Laravel PHP</t>
+    <t>Microweber është krijues falas i faqeve të internetit me zvarritje dhe lëshim me burim të hapur dhe CMS. Është nën licencën MIT dhe ne përdorim kornizën Laravel PHP</t>
   </si>
   <si>
     <t>A Slider</t>
   </si>
   <si>
-    <t>Një Slider</t>
+    <t>Një rrëshqitës</t>
   </si>
   <si>
     <t>Shipping to address</t>
@@ -17421,55 +17427,55 @@
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>Ju nuk keni sistem të postës elektronike dhe konfigurimit të smtp.</t>
+    <t>Nuk keni konfigurim të postës elektronike dhe smtp të sistemit.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
   </si>
   <si>
-    <t>Vendosni këtu cilësimet e sistemit tuaj.</t>
+    <t>Vendosni cilësimet e sistemit tuaj këtu.</t>
   </si>
   <si>
     <t>Global contact form settings</t>
   </si>
   <si>
-    <t>Cilësimet globale të formës së kontaktit</t>
+    <t>Cilësimet globale të formularit të kontaktit</t>
   </si>
   <si>
     <t>E-mail sending options</t>
   </si>
   <si>
-    <t>Opsionet e dërgimit të postës elektronike</t>
+    <t>Opsionet e dërgimit të e-mail</t>
   </si>
   <si>
     <t>Global sender</t>
   </si>
   <si>
-    <t>Dërguesi global</t>
+    <t>Dërgues global</t>
   </si>
   <si>
     <t>Use custom sender settings</t>
   </si>
   <si>
-    <t>Përdorni cilësimet e dërguesit të personalizuar</t>
+    <t>Përdorni cilësimet e personalizuara të dërguesit</t>
   </si>
   <si>
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>Përdorni cilësimet e dërguesit të personalizuar për format globale të kontaktit.</t>
+    <t>Përdorni cilësimet e personalizuara të dërguesit për format globale të kontaktit.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>Si parazgjedhje, ne do të përdorim cilësimet e postës elektronike të sistemit të faqes në internet.</t>
+    <t>Si parazgjedhje ne do të përdorim cilësimet e postës elektronike të sistemit të faqes në internet.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
   </si>
   <si>
-    <t>Mund të ndryshoni cilësimet e postës elektronike të sistemit këtu.</t>
+    <t>Këtu mund të ndryshoni cilësimet e postës elektronike të sistemit.</t>
   </si>
   <si>
     <t>Global Receivers</t>
@@ -17481,25 +17487,25 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Dërgoni të dhënat e formave të kontaktit tek marrësit globalë kur të dorëzohet</t>
+    <t>Dërgoni të dhënat e formularëve të kontaktit te marrësit globalë kur të dorëzohen</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
   </si>
   <si>
-    <t>Për adresat e postës elektronike</t>
+    <t>Për adresat e e-mail</t>
   </si>
   <si>
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>Adresa e postës elektronike të marrësve të ndara me koma.</t>
+    <t>E-mail adresa e marrësve të ndara me koma.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>Kontaktoni me ofruesin tuaj të pritjes për të aktivizuar shtrirjen PHP SOAP.</t>
+    <t>Kontaktoni ofruesin tuaj të pritjes për të aktivizuar shtesën PHP SOAP.</t>
   </si>
   <si>
     <t>Elements</t>
@@ -17532,13 +17538,19 @@
     <t>bxSlider</t>
   </si>
   <si>
+    <t>bxRrëshqitës</t>
+  </si>
+  <si>
     <t>Schema.org</t>
   </si>
   <si>
+    <t>Skema.org</t>
+  </si>
+  <si>
     <t>ProductsV2</t>
   </si>
   <si>
-    <t>ProduktetV2</t>
+    <t>Produkte V2</t>
   </si>
   <si>
     <t>Timeline</t>
@@ -17550,7 +17562,7 @@
     <t>White label WHMCS</t>
   </si>
   <si>
-    <t>Etiketë e bardhë WHMCS</t>
+    <t>Etiketa e bardhë WHMCS</t>
   </si>
   <si>
     <t>Number of the visible testimonials</t>
@@ -17565,7 +17577,7 @@
     <t>Content versions</t>
   </si>
   <si>
-    <t>Versione të përmbajtjes</t>
+    <t>Versionet e përmbajtjes</t>
   </si>
   <si>
     <t>Clear Cache</t>
@@ -17574,7 +17586,7 @@
     <t>Default layouts and elements</t>
   </si>
   <si>
-    <t>Paraqitjet dhe elementet e paracaktuara</t>
+    <t>Paraqitjet dhe elementet e parazgjedhur</t>
   </si>
   <si>
     <t>Arrows List</t>
@@ -17598,13 +17610,13 @@
     <t>Title with Text</t>
   </si>
   <si>
-    <t>Titulli me Tekst</t>
+    <t>Titulli me tekst</t>
   </si>
   <si>
     <t>Icon with Text</t>
   </si>
   <si>
-    <t>Ikonë me Tekst</t>
+    <t>Ikona me tekst</t>
   </si>
   <si>
     <t>Two Text Columns</t>
@@ -17622,18 +17634,21 @@
     <t>Image with Title and Text</t>
   </si>
   <si>
-    <t>Imazh me Titull dhe Tekst</t>
+    <t>Imazhi me titull dhe tekst</t>
   </si>
   <si>
     <t>Text with Image and Title</t>
   </si>
   <si>
-    <t>Teksti me figurë dhe titull</t>
+    <t>Teksti me imazh dhe titull</t>
   </si>
   <si>
     <t>Text with Image</t>
   </si>
   <si>
+    <t>Teksti me imazh</t>
+  </si>
+  <si>
     <t>Enable comments</t>
   </si>
   <si>
@@ -17649,28 +17664,31 @@
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">Konfiguroni preferencat tuaja captcha nga </t>
+    <t xml:space="preserve">Konfiguro preferencat tuaja captcha nga </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
+    <t>Shtoni / modifikoni fushat e formularit duke përdorur fushat e personalizuara</t>
+  </si>
+  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
-    <t>Cilësimet aktuale të formës së kontaktit</t>
+    <t>Cilësimet aktuale të formularit të kontaktit</t>
   </si>
   <si>
     <t>Contact form name</t>
   </si>
   <si>
-    <t>Emri i formës së kontaktit</t>
+    <t>Emri i formularit të kontaktit</t>
   </si>
   <si>
     <t>What is the name of this contact form?</t>
   </si>
   <si>
-    <t>Cili është emri i kësaj forme kontakti?</t>
+    <t>Cili është emri i këtij formulari kontaktues?</t>
   </si>
   <si>
     <t>Receivers</t>
@@ -17682,73 +17700,79 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Dërgoni të dhënat e formularit të kontaktit te marrësit me porosi kur të dorëzohen</t>
+    <t>Dërgoni të dhënat e formularit të kontaktit te marrësit e personalizuar kur të dorëzohen</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>Përdorni cilësimet e marrësve të personalizuar për formën aktuale të kontaktit.</t>
+    <t>Përdorni cilësimet e marrësve të personalizuar për formularin aktual të kontaktit.</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>Si parazgjedhje, ne do të përdorim cilësimet globale të formës së kontaktit.</t>
+    <t>Si parazgjedhje ne do të përdorim cilësimet globale të formularit të kontaktit.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
   </si>
   <si>
-    <t>Mund të ndryshoni cilësimet globale të formës së kontaktit këtu.</t>
+    <t>Mund të ndryshoni cilësimet globale të formularit të kontaktit këtu.</t>
   </si>
   <si>
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Përgjigju automatikisht mesazhit përdoruesit</t>
+    <t>Mesazhi i përgjigjes automatike për përdoruesit</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Aktivizo mesazhin e përgjigjes automatike te përdoruesi</t>
+    <t>Aktivizo mesazhin e përgjigjes automatike për përdoruesit</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Lejoni përdoruesit të marrin "Faleminderit email pas pajtimit".</t>
+    <t>Lejo përdoruesit të marrin "E-mail falenderimi pas abonimit".</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Përgjigju automatikisht subjektit</t>
+    <t>Subjekti i përgjigjes automatike</t>
   </si>
   <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
+    <t>Përgjigjet automatike ju lejojnë të konfiguroni përgjigje të automatizuara për emailet në hyrje</t>
+  </si>
+  <si>
     <t>Auto respond message</t>
   </si>
   <si>
+    <t>Mesazh përgjigjeje automatike</t>
+  </si>
+  <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
-    <t>Përgjigjen automatikisht e-mail dërguar përsëri te përdoruesi</t>
+    <t>Përgjigja automatike e postës elektronike i dërgohet përdoruesit</t>
   </si>
   <si>
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>Përgjigju automatikisht dërguesit me porosi</t>
+    <t>Përgjigja automatike e dërguesit të personalizuar</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
   </si>
   <si>
-    <t>Përdorni cilësimet e dërguesit të personalizuar për formën aktuale të kontaktit.</t>
+    <t>Përdorni cilësimet e personalizuara të dërguesit për formularin aktual të kontaktit.</t>
   </si>
   <si>
     <t>Auto respond from e-mail address</t>
@@ -17760,49 +17784,49 @@
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>Përgjigju automatikisht nga emri</t>
+    <t>Përgjigjuni automatikisht nga emri</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>Përgjigju automatikisht përgjigjes në email</t>
+    <t>Përgjigja automatike në e-mail</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Kur përdoruesi merr mesazhin e përgjigjes automatike, ai mund të përgjigjet përsëri për t'iu përgjigjur me email.</t>
+    <t>Kur përdoruesi merr mesazhin e përgjigjes automatike, ai mund të përgjigjet për t'iu përgjigjur emailit.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Përgjigjuni automatikisht bashkangjiturve të postës elektronike</t>
+    <t>Përgjigjuni automatikisht bashkëngjitjet e postës elektronike</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
-    <t>Nëse dëshironi të bashkangjitni imazhe dhe og, duhet t'i ngarkoni ato në galeri nga 'Shto media'</t>
+    <t>Nëse dëshironi të bashkëngjitni imazhe og, duhet t'i ngarkoni ato në galeri nga "Shto media"</t>
   </si>
   <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
-    <t>Nuk keni ende ndonjë postim</t>
+    <t>Nuk keni ende asnjë postim</t>
   </si>
   <si>
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>Krijoni postimin tuaj të parë tani.</t>
+    <t>Krijo postimin tënd të parë tani.</t>
   </si>
   <si>
     <t>Create a Post</t>
   </si>
   <si>
-    <t>Krijoni një Postim</t>
+    <t>Krijo një postim</t>
   </si>
   <si>
     <t>templates-new-world</t>
@@ -17816,11 +17840,11 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t>Si të shkruani përshkrime të produkteve që shesin
-                                                    Një nga gjërat më të mira që mund të bëni për ta bërë dyqanin tuaj të suksesshëm është të investoni pak kohë në shkrimin e përshkrimeve të shkëlqyera të produkteve. Ju dëshironi të ofroni informacione të hollësishme por koncize që do të joshin klientët e mundshëm për të blerë.
+    <t>Si të shkruani përshkrime produktesh që shesin
+                                                    Një nga gjërat më të mira që mund të bëni për ta bërë dyqanin tuaj të suksesshëm është të investoni pak kohë për të shkruar përshkrime të shkëlqyera të produkteve. Ju dëshironi të jepni informacion të detajuar por konciz që do t'i joshë klientët potencialë për të blerë.
                                                     Mendoni si një konsumator
-                                                    Mendoni për atë që ju si konsumator dëshironi të dini, pastaj përfshini ato veçori në përshkrimin tuaj. Për rrobat: materiale dhe përshtatje. Për ushqimin: përbërësit dhe mënyra se si është përgatitur. Plumbat janë miqtë tuaj kur rendisni veçoritë
-                                                   - përpiquni të
+                                                    Mendoni se çfarë do të dëshironit të dini si konsumator dhe më pas përfshini ato veçori në përshkrimin tuaj. Për rroba: materiale dhe përshtatje. Për ushqimin: përbërësit dhe si u përgatit. Plumbat janë miqtë tuaj kur listoni
+                                                   veçori — përpiquni të
                                                             kufizoni secilën në 5-8 fjalë.</t>
   </si>
   <si>
@@ -17830,340 +17854,268 @@
     <t>Gjuha e administratorit</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Shto nënfaqe</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Kategoria u fshi</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Përmbajtja u fshi</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Kërko kategoritë</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Krijo përmbajtje</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Kartelë</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Çdo</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Përshkrim ID</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Nuk keni asnjë produkt</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Kthehu tek</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>kategoritë</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Fushat e personalizuara ruhen</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Fushat ekzistuese</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Zgjidhni nga fushat tuaja ekzistuese më poshtë</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shtoni fusha të reja</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Shtoni një fushë të re të personalizuar nga lista e mëposhtme</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Fushat tuaja</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Lista e fushave tuaja të personalizuara të shtuara</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Stoku</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sistemi</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Ridrejtimi i shfletuesit</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integrimi</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Mjeti i importit të eksportit</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Përditësues i pavarur</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Pako paraprake</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Përdorni</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Aktuale</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>shprehin</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Klasa e Parë</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Kliko &amp; Mblidh</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Sfondi i videos</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>Shumëgjuhëshe</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Mund të aktivizoni modulin shumë-gjuhësh për të përdorur shumë gjuhë</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Modaliteti shumëgjuhësh</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Aktivizoni modalitetin shumëgjuhësh për të pasur shumë gjuhë për përmbajtjen tuaj.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Përkthimet janë të importuara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Përkthimet nuk u gjetën në bazën e të dhënave. Dëshironi të importoni përkthime? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Karroca juaj është bosh.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Redaktori i kodit</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>tituj</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Titujt 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Titujt 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Titujt 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Titujt 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Titujt 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Titujt 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Titujt 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Titujt 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>bllok teksti</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Blloku i tekstit 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Blloku i tekstit 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Blloku i tekstit 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Blloku i tekstit 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Blloku i tekstit 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Blloku i tekstit 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Blloku i tekstit 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Blloku i tekstit 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Blloku i tekstit 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Blloku i tekstit 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Blloku i tekstit 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Blloku i tekstit 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Blloku i tekstit 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Blloku i tekstit 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Blloku i tekstit 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>veçoritë</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Karakteristikat 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Karakteristikat 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Karakteristikat 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Karakteristikat 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>rrjete</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Menuja - lëkurë-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Menu - lëkurë-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Menu - lëkurë-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Menu - lëkurë-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Menu - lëkurë-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>fundoret</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Fundet 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Fundet 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Fundet 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Fundet 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>tjera</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Çmimi 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Paraqitjet e parazgjedhura</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Nuk ka përmbajtje këtu</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Fushat e personalizuara ruhen</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Fushat ekzistuese</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Zgjidhni nga fushat tuaja ekzistuese më poshtë</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shtoni fusha të reja</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Shtoni një fushë të re të personalizuar nga lista e mëposhtme</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Fushat tuaja</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Lista e fushave tuaja të personalizuara të shtuara</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Importi i ri</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -18212,510 +18164,6 @@
   </si>
   <si>
     <t>Rimbushja e stileve</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Lidhje me</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Pako paraprake</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Përdorni</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Aktuale</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Porosit sërish</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Sistemi</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Ridrejtimi i shfletuesit</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Integrimi</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Përditësues i pavarur</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Ju duhet çelësi i licencës për të instaluar këtë paketë</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Kjo paketë është premium dhe duhet të keni një çelës licence për ta instaluar</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Ju duhet çelësi i licencës</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Licenca u aktivizua</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Faqja po rifreskohet</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Licenca nuk është aktivizuar</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Përditësimet e sistemit</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Kontrolloni për përditësime të sistemit</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Kthehu në listë</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Kategoria duhet të ketë një emër</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>A është kategoria e fshehur?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Nëse e vendosni këtë në PO, kjo kategori do të fshihet nga faqja e internetit</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Duke përmendur</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Karroca juaj është bosh.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Rezultatet e gjetura</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Nëse zgjidhni Përqindjen nga fusha e përzgjedhur, ajo do të llogaritet automatikisht nga çmimi dhe çmimi i ofertës së produktit.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>custom.multillanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>vlerat.multilanguage.title.sq.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>Regjistrohu</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Vazhdoni te Checkout</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Shkarko fund</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Duke u shfaqur</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>rezultat(et)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Titulli i faqes - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Titulli i faqes - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Kushtet e përdorimit</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Dorëzimi dhe kthimi</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>Informacioni i transportit</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Rreth 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Rreth 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Rreth 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Shtëpia 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Shtëpia 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Duhet të klikoni butonin aplikoni shabllonin për të ndryshuar shabllonin tuaj</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Kërko sipas kritereve</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Data nga</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Vendosni urdhrat nga data</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Data në</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Vendosni urdhrat deri më sot</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Shuma e porosisë nga</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Trego porosinë me shumën minimale</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Shuma e porosisë në</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Trego porosinë me shumën maksimale</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Kërko sipas produkteve...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Kërko sipas produkteve</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Statusi i pagesës</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Kërkim falas me telefon, emër, email etj...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Paraqisni këtë kriter</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Rivendos filtrin</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Eksporto të gjitha</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Zgjidhni renditjen</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Data e porosisë</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[E re &gt; e vjetër]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[E vjetër &gt; e re]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[I lartë &gt; i ulët]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[I ulët &gt; i lartë]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>përkthimet nga moduli multilnaguage janë gjetur në bazën tuaj të të dhënave.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Paralajmërim! Ndryshimi i gjuhës së paracaktuar mund të prishë përkthimet në faqen tuaj.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Je i sigurt që dëshiron të vazhdosh?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Paralajmërim! Ndryshimi i gjuhës së paracaktuar ndoshta do të prishë faqen tuaj.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Detajet e transportit</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>Lloji i transportit</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>porosia nuk është përfunduar ende</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>porosia është e përfunduar</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Krijuar në</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>Përditësuar në</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vështrim i shpejtë </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Zëvendësoni vlerat e gjuhës</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Përkthimet janë të importuara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Përkthimet nuk u gjetën në bazën e të dhënave. Dëshironi të importoni përkthime? </t>
   </si>
 </sst>
 </file>
@@ -19051,7 +18499,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69441,7 +68889,7 @@
         <v>5743</v>
       </c>
       <c r="D2964" t="s">
-        <v>1395</v>
+        <v>5744</v>
       </c>
       <c r="E2964" t="s">
         <v>8</v>
@@ -69455,10 +68903,10 @@
         <v>5</v>
       </c>
       <c r="C2965" t="s">
-        <v>5744</v>
+        <v>5745</v>
       </c>
       <c r="D2965" t="s">
-        <v>5745</v>
+        <v>5746</v>
       </c>
       <c r="E2965" t="s">
         <v>8</v>
@@ -69472,10 +68920,10 @@
         <v>5</v>
       </c>
       <c r="C2966" t="s">
-        <v>5746</v>
+        <v>5747</v>
       </c>
       <c r="D2966" t="s">
-        <v>5747</v>
+        <v>5748</v>
       </c>
       <c r="E2966" t="s">
         <v>8</v>
@@ -69489,10 +68937,10 @@
         <v>5</v>
       </c>
       <c r="C2967" t="s">
-        <v>5748</v>
+        <v>5749</v>
       </c>
       <c r="D2967" t="s">
-        <v>5749</v>
+        <v>5750</v>
       </c>
       <c r="E2967" t="s">
         <v>8</v>
@@ -69506,10 +68954,10 @@
         <v>5</v>
       </c>
       <c r="C2968" t="s">
-        <v>5750</v>
+        <v>5751</v>
       </c>
       <c r="D2968" t="s">
-        <v>5751</v>
+        <v>5752</v>
       </c>
       <c r="E2968" t="s">
         <v>8</v>
@@ -69523,10 +68971,10 @@
         <v>5</v>
       </c>
       <c r="C2969" t="s">
-        <v>5752</v>
+        <v>5753</v>
       </c>
       <c r="D2969" t="s">
-        <v>5753</v>
+        <v>5754</v>
       </c>
       <c r="E2969" t="s">
         <v>8</v>
@@ -69540,10 +68988,10 @@
         <v>5</v>
       </c>
       <c r="C2970" t="s">
-        <v>5754</v>
+        <v>5755</v>
       </c>
       <c r="D2970" t="s">
-        <v>5755</v>
+        <v>5756</v>
       </c>
       <c r="E2970" t="s">
         <v>8</v>
@@ -69557,10 +69005,10 @@
         <v>5</v>
       </c>
       <c r="C2971" t="s">
-        <v>5756</v>
+        <v>5757</v>
       </c>
       <c r="D2971" t="s">
-        <v>5757</v>
+        <v>5758</v>
       </c>
       <c r="E2971" t="s">
         <v>8</v>
@@ -69574,10 +69022,10 @@
         <v>5</v>
       </c>
       <c r="C2972" t="s">
-        <v>5758</v>
+        <v>5759</v>
       </c>
       <c r="D2972" t="s">
-        <v>5759</v>
+        <v>5760</v>
       </c>
       <c r="E2972" t="s">
         <v>8</v>
@@ -69591,10 +69039,10 @@
         <v>5</v>
       </c>
       <c r="C2973" t="s">
-        <v>5760</v>
+        <v>5761</v>
       </c>
       <c r="D2973" t="s">
-        <v>5761</v>
+        <v>5762</v>
       </c>
       <c r="E2973" t="s">
         <v>8</v>
@@ -69608,10 +69056,10 @@
         <v>5</v>
       </c>
       <c r="C2974" t="s">
-        <v>5762</v>
+        <v>5763</v>
       </c>
       <c r="D2974" t="s">
-        <v>5763</v>
+        <v>5764</v>
       </c>
       <c r="E2974" t="s">
         <v>8</v>
@@ -69625,10 +69073,10 @@
         <v>5</v>
       </c>
       <c r="C2975" t="s">
-        <v>5764</v>
+        <v>5765</v>
       </c>
       <c r="D2975" t="s">
-        <v>5765</v>
+        <v>5766</v>
       </c>
       <c r="E2975" t="s">
         <v>8</v>
@@ -69642,10 +69090,10 @@
         <v>5</v>
       </c>
       <c r="C2976" t="s">
-        <v>5766</v>
+        <v>5767</v>
       </c>
       <c r="D2976" t="s">
-        <v>5767</v>
+        <v>5768</v>
       </c>
       <c r="E2976" t="s">
         <v>8</v>
@@ -69659,10 +69107,10 @@
         <v>5</v>
       </c>
       <c r="C2977" t="s">
-        <v>5768</v>
+        <v>5769</v>
       </c>
       <c r="D2977" t="s">
-        <v>5769</v>
+        <v>5770</v>
       </c>
       <c r="E2977" t="s">
         <v>8</v>
@@ -69676,10 +69124,10 @@
         <v>5</v>
       </c>
       <c r="C2978" t="s">
-        <v>5770</v>
+        <v>5771</v>
       </c>
       <c r="D2978" t="s">
-        <v>5771</v>
+        <v>5772</v>
       </c>
       <c r="E2978" t="s">
         <v>8</v>
@@ -69693,10 +69141,10 @@
         <v>5</v>
       </c>
       <c r="C2979" t="s">
-        <v>5772</v>
+        <v>5773</v>
       </c>
       <c r="D2979" t="s">
-        <v>5773</v>
+        <v>5774</v>
       </c>
       <c r="E2979" t="s">
         <v>8</v>
@@ -69710,10 +69158,10 @@
         <v>5</v>
       </c>
       <c r="C2980" t="s">
-        <v>5774</v>
+        <v>5775</v>
       </c>
       <c r="D2980" t="s">
-        <v>5775</v>
+        <v>5776</v>
       </c>
       <c r="E2980" t="s">
         <v>8</v>
@@ -69727,10 +69175,10 @@
         <v>5</v>
       </c>
       <c r="C2981" t="s">
-        <v>5776</v>
+        <v>5777</v>
       </c>
       <c r="D2981" t="s">
-        <v>5777</v>
+        <v>5778</v>
       </c>
       <c r="E2981" t="s">
         <v>8</v>
@@ -69744,10 +69192,10 @@
         <v>5</v>
       </c>
       <c r="C2982" t="s">
-        <v>5778</v>
+        <v>5779</v>
       </c>
       <c r="D2982" t="s">
-        <v>5779</v>
+        <v>5780</v>
       </c>
       <c r="E2982" t="s">
         <v>8</v>
@@ -69761,10 +69209,10 @@
         <v>5</v>
       </c>
       <c r="C2983" t="s">
-        <v>5780</v>
+        <v>5781</v>
       </c>
       <c r="D2983" t="s">
-        <v>3845</v>
+        <v>5782</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -69778,10 +69226,10 @@
         <v>5</v>
       </c>
       <c r="C2984" t="s">
-        <v>5781</v>
+        <v>5783</v>
       </c>
       <c r="D2984" t="s">
-        <v>5782</v>
+        <v>5784</v>
       </c>
       <c r="E2984" t="s">
         <v>8</v>
@@ -69795,10 +69243,10 @@
         <v>5</v>
       </c>
       <c r="C2985" t="s">
-        <v>5783</v>
+        <v>5785</v>
       </c>
       <c r="D2985" t="s">
-        <v>5784</v>
+        <v>5786</v>
       </c>
       <c r="E2985" t="s">
         <v>8</v>
@@ -69812,10 +69260,10 @@
         <v>5</v>
       </c>
       <c r="C2986" t="s">
-        <v>5785</v>
+        <v>5787</v>
       </c>
       <c r="D2986" t="s">
-        <v>5786</v>
+        <v>5788</v>
       </c>
       <c r="E2986" t="s">
         <v>8</v>
@@ -69829,10 +69277,10 @@
         <v>5</v>
       </c>
       <c r="C2987" t="s">
-        <v>5787</v>
+        <v>5789</v>
       </c>
       <c r="D2987" t="s">
-        <v>5788</v>
+        <v>5790</v>
       </c>
       <c r="E2987" t="s">
         <v>8</v>
@@ -69846,10 +69294,10 @@
         <v>5</v>
       </c>
       <c r="C2988" t="s">
-        <v>5789</v>
+        <v>5791</v>
       </c>
       <c r="D2988" t="s">
-        <v>5790</v>
+        <v>5792</v>
       </c>
       <c r="E2988" t="s">
         <v>8</v>
@@ -69863,10 +69311,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
-        <v>5791</v>
+        <v>5793</v>
       </c>
       <c r="D2989" t="s">
-        <v>5792</v>
+        <v>5794</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -69880,10 +69328,10 @@
         <v>5</v>
       </c>
       <c r="C2990" t="s">
-        <v>5793</v>
+        <v>5795</v>
       </c>
       <c r="D2990" t="s">
-        <v>5794</v>
+        <v>5796</v>
       </c>
       <c r="E2990" t="s">
         <v>8</v>
@@ -69897,10 +69345,10 @@
         <v>5</v>
       </c>
       <c r="C2991" t="s">
-        <v>5795</v>
+        <v>5797</v>
       </c>
       <c r="D2991" t="s">
-        <v>5796</v>
+        <v>5798</v>
       </c>
       <c r="E2991" t="s">
         <v>8</v>
@@ -69914,10 +69362,10 @@
         <v>5</v>
       </c>
       <c r="C2992" t="s">
-        <v>5797</v>
+        <v>5799</v>
       </c>
       <c r="D2992" t="s">
-        <v>5798</v>
+        <v>5800</v>
       </c>
       <c r="E2992" t="s">
         <v>8</v>
@@ -69931,10 +69379,10 @@
         <v>5</v>
       </c>
       <c r="C2993" t="s">
-        <v>5799</v>
+        <v>5801</v>
       </c>
       <c r="D2993" t="s">
-        <v>5800</v>
+        <v>5802</v>
       </c>
       <c r="E2993" t="s">
         <v>8</v>
@@ -69948,10 +69396,10 @@
         <v>5</v>
       </c>
       <c r="C2994" t="s">
-        <v>5801</v>
+        <v>5803</v>
       </c>
       <c r="D2994" t="s">
-        <v>5802</v>
+        <v>5804</v>
       </c>
       <c r="E2994" t="s">
         <v>8</v>
@@ -69965,10 +69413,10 @@
         <v>5</v>
       </c>
       <c r="C2995" t="s">
-        <v>5803</v>
+        <v>5805</v>
       </c>
       <c r="D2995" t="s">
-        <v>5804</v>
+        <v>5806</v>
       </c>
       <c r="E2995" t="s">
         <v>8</v>
@@ -69982,10 +69430,10 @@
         <v>5</v>
       </c>
       <c r="C2996" t="s">
-        <v>5805</v>
+        <v>5807</v>
       </c>
       <c r="D2996" t="s">
-        <v>5806</v>
+        <v>5808</v>
       </c>
       <c r="E2996" t="s">
         <v>8</v>
@@ -69999,10 +69447,10 @@
         <v>5</v>
       </c>
       <c r="C2997" t="s">
-        <v>5807</v>
+        <v>5809</v>
       </c>
       <c r="D2997" t="s">
-        <v>5808</v>
+        <v>5810</v>
       </c>
       <c r="E2997" t="s">
         <v>8</v>
@@ -70016,10 +69464,10 @@
         <v>5</v>
       </c>
       <c r="C2998" t="s">
-        <v>5809</v>
+        <v>5811</v>
       </c>
       <c r="D2998" t="s">
-        <v>5810</v>
+        <v>5812</v>
       </c>
       <c r="E2998" t="s">
         <v>8</v>
@@ -70033,10 +69481,10 @@
         <v>5</v>
       </c>
       <c r="C2999" t="s">
-        <v>5811</v>
+        <v>5813</v>
       </c>
       <c r="D2999" t="s">
-        <v>5812</v>
+        <v>5814</v>
       </c>
       <c r="E2999" t="s">
         <v>8</v>
@@ -70050,10 +69498,10 @@
         <v>5</v>
       </c>
       <c r="C3000" t="s">
-        <v>5813</v>
+        <v>5815</v>
       </c>
       <c r="D3000" t="s">
-        <v>5814</v>
+        <v>5816</v>
       </c>
       <c r="E3000" t="s">
         <v>8</v>
@@ -70067,10 +69515,10 @@
         <v>5</v>
       </c>
       <c r="C3001" t="s">
-        <v>5815</v>
+        <v>5817</v>
       </c>
       <c r="D3001" t="s">
-        <v>5816</v>
+        <v>5818</v>
       </c>
       <c r="E3001" t="s">
         <v>8</v>
@@ -70084,10 +69532,10 @@
         <v>5</v>
       </c>
       <c r="C3002" t="s">
-        <v>5817</v>
+        <v>5819</v>
       </c>
       <c r="D3002" t="s">
-        <v>5818</v>
+        <v>5820</v>
       </c>
       <c r="E3002" t="s">
         <v>8</v>
@@ -70101,10 +69549,10 @@
         <v>5</v>
       </c>
       <c r="C3003" t="s">
-        <v>5819</v>
+        <v>5821</v>
       </c>
       <c r="D3003" t="s">
-        <v>5820</v>
+        <v>5822</v>
       </c>
       <c r="E3003" t="s">
         <v>8</v>
@@ -70118,10 +69566,10 @@
         <v>5</v>
       </c>
       <c r="C3004" t="s">
-        <v>5821</v>
+        <v>5823</v>
       </c>
       <c r="D3004" t="s">
-        <v>5822</v>
+        <v>5824</v>
       </c>
       <c r="E3004" t="s">
         <v>8</v>
@@ -70135,10 +69583,10 @@
         <v>5</v>
       </c>
       <c r="C3005" t="s">
-        <v>5823</v>
+        <v>5825</v>
       </c>
       <c r="D3005" t="s">
-        <v>5824</v>
+        <v>5826</v>
       </c>
       <c r="E3005" t="s">
         <v>8</v>
@@ -70152,10 +69600,10 @@
         <v>5</v>
       </c>
       <c r="C3006" t="s">
-        <v>5825</v>
+        <v>5827</v>
       </c>
       <c r="D3006" t="s">
-        <v>5826</v>
+        <v>5828</v>
       </c>
       <c r="E3006" t="s">
         <v>8</v>
@@ -70169,10 +69617,10 @@
         <v>5</v>
       </c>
       <c r="C3007" t="s">
-        <v>5827</v>
+        <v>5829</v>
       </c>
       <c r="D3007" t="s">
-        <v>5828</v>
+        <v>5830</v>
       </c>
       <c r="E3007" t="s">
         <v>8</v>
@@ -70186,10 +69634,10 @@
         <v>5</v>
       </c>
       <c r="C3008" t="s">
-        <v>5829</v>
+        <v>5831</v>
       </c>
       <c r="D3008" t="s">
-        <v>5830</v>
+        <v>5832</v>
       </c>
       <c r="E3008" t="s">
         <v>8</v>
@@ -70203,7 +69651,7 @@
         <v>5</v>
       </c>
       <c r="C3009" t="s">
-        <v>5831</v>
+        <v>5833</v>
       </c>
       <c r="D3009" t="s">
         <v>3230</v>
@@ -70220,10 +69668,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
-        <v>5832</v>
+        <v>5834</v>
       </c>
       <c r="D3010" t="s">
-        <v>5833</v>
+        <v>5835</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -70237,10 +69685,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
-        <v>5834</v>
+        <v>5836</v>
       </c>
       <c r="D3011" t="s">
-        <v>5835</v>
+        <v>5837</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -70254,10 +69702,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5836</v>
+        <v>5838</v>
       </c>
       <c r="D3012" t="s">
-        <v>5836</v>
+        <v>5839</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -70271,10 +69719,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5837</v>
+        <v>5840</v>
       </c>
       <c r="D3013" t="s">
-        <v>5837</v>
+        <v>5841</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70288,10 +69736,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
-        <v>5838</v>
+        <v>5842</v>
       </c>
       <c r="D3014" t="s">
-        <v>5839</v>
+        <v>5843</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70305,10 +69753,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5840</v>
+        <v>5844</v>
       </c>
       <c r="D3015" t="s">
-        <v>5841</v>
+        <v>5845</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70322,10 +69770,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5842</v>
+        <v>5846</v>
       </c>
       <c r="D3016" t="s">
-        <v>5843</v>
+        <v>5847</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70339,7 +69787,7 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5844</v>
+        <v>5848</v>
       </c>
       <c r="D3017" t="s">
         <v>3328</v>
@@ -70356,10 +69804,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5845</v>
+        <v>5849</v>
       </c>
       <c r="D3018" t="s">
-        <v>5846</v>
+        <v>5850</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70373,10 +69821,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5847</v>
+        <v>5851</v>
       </c>
       <c r="D3019" t="s">
-        <v>5848</v>
+        <v>5852</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70390,7 +69838,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5849</v>
+        <v>5853</v>
       </c>
       <c r="D3020" t="s">
         <v>1569</v>
@@ -70407,10 +69855,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5850</v>
+        <v>5854</v>
       </c>
       <c r="D3021" t="s">
-        <v>5851</v>
+        <v>5855</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70424,10 +69872,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5852</v>
+        <v>5856</v>
       </c>
       <c r="D3022" t="s">
-        <v>5853</v>
+        <v>5857</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70441,10 +69889,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5854</v>
+        <v>5858</v>
       </c>
       <c r="D3023" t="s">
-        <v>5855</v>
+        <v>5859</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70458,10 +69906,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5856</v>
+        <v>5860</v>
       </c>
       <c r="D3024" t="s">
-        <v>5857</v>
+        <v>5861</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70475,10 +69923,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5858</v>
+        <v>5862</v>
       </c>
       <c r="D3025" t="s">
-        <v>5859</v>
+        <v>5863</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70492,10 +69940,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5860</v>
+        <v>5864</v>
       </c>
       <c r="D3026" t="s">
-        <v>5861</v>
+        <v>5865</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70509,10 +69957,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5862</v>
+        <v>5866</v>
       </c>
       <c r="D3027" t="s">
-        <v>5863</v>
+        <v>5867</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70526,10 +69974,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5864</v>
+        <v>5868</v>
       </c>
       <c r="D3028" t="s">
-        <v>5865</v>
+        <v>5869</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70543,10 +69991,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5866</v>
+        <v>5870</v>
       </c>
       <c r="D3029" t="s">
-        <v>5867</v>
+        <v>5871</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70560,10 +70008,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5868</v>
+        <v>5872</v>
       </c>
       <c r="D3030" t="s">
-        <v>5869</v>
+        <v>5873</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70577,10 +70025,10 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5870</v>
+        <v>5874</v>
       </c>
       <c r="D3031" t="s">
-        <v>1120</v>
+        <v>5875</v>
       </c>
       <c r="E3031" t="s">
         <v>8</v>
@@ -70594,10 +70042,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5871</v>
+        <v>5876</v>
       </c>
       <c r="D3032" t="s">
-        <v>5872</v>
+        <v>5877</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70611,10 +70059,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5873</v>
+        <v>5878</v>
       </c>
       <c r="D3033" t="s">
-        <v>5874</v>
+        <v>5879</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70628,10 +70076,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5875</v>
+        <v>5880</v>
       </c>
       <c r="D3034" t="s">
-        <v>5876</v>
+        <v>5881</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70645,10 +70093,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5877</v>
+        <v>5882</v>
       </c>
       <c r="D3035" t="s">
-        <v>4964</v>
+        <v>5883</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70662,10 +70110,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5878</v>
+        <v>5884</v>
       </c>
       <c r="D3036" t="s">
-        <v>5879</v>
+        <v>5885</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70679,10 +70127,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5880</v>
+        <v>5886</v>
       </c>
       <c r="D3037" t="s">
-        <v>5881</v>
+        <v>5887</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70696,10 +70144,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5882</v>
+        <v>5888</v>
       </c>
       <c r="D3038" t="s">
-        <v>5883</v>
+        <v>5889</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70713,10 +70161,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5884</v>
+        <v>5890</v>
       </c>
       <c r="D3039" t="s">
-        <v>5885</v>
+        <v>5891</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70730,10 +70178,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5886</v>
+        <v>5892</v>
       </c>
       <c r="D3040" t="s">
-        <v>5887</v>
+        <v>5893</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70747,10 +70195,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5888</v>
+        <v>5894</v>
       </c>
       <c r="D3041" t="s">
-        <v>5889</v>
+        <v>5895</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70764,10 +70212,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5890</v>
+        <v>5896</v>
       </c>
       <c r="D3042" t="s">
-        <v>5891</v>
+        <v>5897</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70781,10 +70229,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5892</v>
+        <v>5898</v>
       </c>
       <c r="D3043" t="s">
-        <v>5893</v>
+        <v>5899</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70798,10 +70246,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5894</v>
+        <v>5900</v>
       </c>
       <c r="D3044" t="s">
-        <v>5895</v>
+        <v>5901</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70815,10 +70263,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5896</v>
+        <v>5902</v>
       </c>
       <c r="D3045" t="s">
-        <v>5897</v>
+        <v>5903</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70832,10 +70280,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5898</v>
+        <v>5904</v>
       </c>
       <c r="D3046" t="s">
-        <v>5899</v>
+        <v>5905</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70849,10 +70297,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5900</v>
+        <v>5906</v>
       </c>
       <c r="D3047" t="s">
-        <v>5901</v>
+        <v>5907</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70866,10 +70314,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5902</v>
+        <v>5908</v>
       </c>
       <c r="D3048" t="s">
-        <v>3132</v>
+        <v>5909</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70883,10 +70331,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5903</v>
+        <v>5910</v>
       </c>
       <c r="D3049" t="s">
-        <v>3126</v>
+        <v>5911</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70900,10 +70348,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5904</v>
+        <v>5912</v>
       </c>
       <c r="D3050" t="s">
-        <v>5905</v>
+        <v>5913</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70917,10 +70365,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5906</v>
+        <v>5914</v>
       </c>
       <c r="D3051" t="s">
-        <v>5907</v>
+        <v>5915</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70934,10 +70382,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5908</v>
+        <v>5916</v>
       </c>
       <c r="D3052" t="s">
-        <v>5909</v>
+        <v>5917</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70951,10 +70399,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5910</v>
+        <v>5918</v>
       </c>
       <c r="D3053" t="s">
-        <v>5911</v>
+        <v>5919</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70968,10 +70416,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5912</v>
+        <v>5920</v>
       </c>
       <c r="D3054" t="s">
-        <v>5913</v>
+        <v>5921</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70985,10 +70433,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5914</v>
+        <v>5922</v>
       </c>
       <c r="D3055" t="s">
-        <v>5915</v>
+        <v>5923</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -71002,10 +70450,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5916</v>
+        <v>5924</v>
       </c>
       <c r="D3056" t="s">
-        <v>5917</v>
+        <v>5925</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -71019,10 +70467,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5918</v>
+        <v>5926</v>
       </c>
       <c r="D3057" t="s">
-        <v>5919</v>
+        <v>5927</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -71036,10 +70484,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5920</v>
+        <v>5928</v>
       </c>
       <c r="D3058" t="s">
-        <v>5921</v>
+        <v>5929</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -71053,10 +70501,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5922</v>
+        <v>5930</v>
       </c>
       <c r="D3059" t="s">
-        <v>5923</v>
+        <v>5931</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -71070,10 +70518,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5924</v>
+        <v>5932</v>
       </c>
       <c r="D3060" t="s">
-        <v>5925</v>
+        <v>5933</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -71087,10 +70535,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5926</v>
+        <v>5934</v>
       </c>
       <c r="D3061" t="s">
-        <v>5927</v>
+        <v>5935</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -71101,13 +70549,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5928</v>
+        <v>5936</v>
       </c>
       <c r="C3062" t="s">
-        <v>5929</v>
+        <v>5937</v>
       </c>
       <c r="D3062" t="s">
-        <v>5930</v>
+        <v>5938</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -71121,10 +70569,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5931</v>
+        <v>5939</v>
       </c>
       <c r="D3063" t="s">
-        <v>5932</v>
+        <v>5940</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -71138,10 +70586,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5933</v>
+        <v>5941</v>
       </c>
       <c r="D3064" t="s">
-        <v>4515</v>
+        <v>4262</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -71155,10 +70603,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5934</v>
+        <v>5942</v>
       </c>
       <c r="D3065" t="s">
-        <v>5935</v>
+        <v>5943</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71172,10 +70620,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5936</v>
+        <v>5944</v>
       </c>
       <c r="D3066" t="s">
-        <v>5936</v>
+        <v>5945</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71189,10 +70637,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5937</v>
+        <v>5946</v>
       </c>
       <c r="D3067" t="s">
-        <v>5938</v>
+        <v>5947</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71206,10 +70654,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5939</v>
+        <v>5948</v>
       </c>
       <c r="D3068" t="s">
-        <v>5940</v>
+        <v>5949</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71223,10 +70671,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5941</v>
+        <v>5950</v>
       </c>
       <c r="D3069" t="s">
-        <v>5942</v>
+        <v>5951</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71240,10 +70688,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5943</v>
+        <v>5952</v>
       </c>
       <c r="D3070" t="s">
-        <v>5944</v>
+        <v>5953</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71257,10 +70705,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5945</v>
+        <v>5954</v>
       </c>
       <c r="D3071" t="s">
-        <v>5946</v>
+        <v>5955</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71274,10 +70722,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5947</v>
+        <v>5956</v>
       </c>
       <c r="D3072" t="s">
-        <v>5948</v>
+        <v>5957</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71291,10 +70739,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5949</v>
+        <v>5958</v>
       </c>
       <c r="D3073" t="s">
-        <v>5950</v>
+        <v>5958</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71308,10 +70756,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5951</v>
+        <v>5959</v>
       </c>
       <c r="D3074" t="s">
-        <v>5952</v>
+        <v>4515</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71325,10 +70773,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5953</v>
+        <v>5960</v>
       </c>
       <c r="D3075" t="s">
-        <v>5954</v>
+        <v>1654</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71342,10 +70790,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5955</v>
+        <v>5961</v>
       </c>
       <c r="D3076" t="s">
-        <v>5956</v>
+        <v>5962</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71359,10 +70807,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5957</v>
+        <v>5963</v>
       </c>
       <c r="D3077" t="s">
-        <v>5958</v>
+        <v>5964</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71376,10 +70824,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5959</v>
+        <v>5965</v>
       </c>
       <c r="D3078" t="s">
-        <v>5960</v>
+        <v>5966</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71393,10 +70841,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5961</v>
+        <v>5967</v>
       </c>
       <c r="D3079" t="s">
-        <v>5962</v>
+        <v>5968</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71410,10 +70858,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5963</v>
+        <v>5969</v>
       </c>
       <c r="D3080" t="s">
-        <v>5964</v>
+        <v>5970</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71427,10 +70875,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5965</v>
+        <v>5971</v>
       </c>
       <c r="D3081" t="s">
-        <v>5966</v>
+        <v>5972</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71444,10 +70892,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5967</v>
+        <v>5973</v>
       </c>
       <c r="D3082" t="s">
-        <v>5968</v>
+        <v>5974</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71461,10 +70909,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5969</v>
+        <v>5975</v>
       </c>
       <c r="D3083" t="s">
-        <v>5970</v>
+        <v>5976</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71478,10 +70926,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5971</v>
+        <v>5977</v>
       </c>
       <c r="D3084" t="s">
-        <v>5972</v>
+        <v>5978</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71495,10 +70943,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5973</v>
+        <v>5979</v>
       </c>
       <c r="D3085" t="s">
-        <v>5974</v>
+        <v>5980</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71512,10 +70960,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5975</v>
+        <v>5981</v>
       </c>
       <c r="D3086" t="s">
-        <v>5976</v>
+        <v>5982</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71529,10 +70977,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5977</v>
+        <v>5983</v>
       </c>
       <c r="D3087" t="s">
-        <v>5978</v>
+        <v>5984</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71546,10 +70994,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5979</v>
+        <v>5985</v>
       </c>
       <c r="D3088" t="s">
-        <v>5980</v>
+        <v>5985</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71563,10 +71011,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5981</v>
+        <v>5986</v>
       </c>
       <c r="D3089" t="s">
-        <v>5982</v>
+        <v>5987</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71580,10 +71028,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5983</v>
+        <v>5988</v>
       </c>
       <c r="D3090" t="s">
-        <v>5984</v>
+        <v>5989</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71597,10 +71045,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5985</v>
+        <v>5990</v>
       </c>
       <c r="D3091" t="s">
-        <v>5986</v>
+        <v>5991</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71614,10 +71062,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5987</v>
+        <v>5992</v>
       </c>
       <c r="D3092" t="s">
-        <v>5988</v>
+        <v>5993</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71631,10 +71079,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5989</v>
+        <v>5994</v>
       </c>
       <c r="D3093" t="s">
-        <v>5990</v>
+        <v>5995</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71648,10 +71096,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5991</v>
+        <v>5996</v>
       </c>
       <c r="D3094" t="s">
-        <v>5992</v>
+        <v>5996</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71665,10 +71113,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5993</v>
+        <v>5997</v>
       </c>
       <c r="D3095" t="s">
-        <v>5994</v>
+        <v>5998</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71682,10 +71130,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5995</v>
+        <v>5999</v>
       </c>
       <c r="D3096" t="s">
-        <v>5996</v>
+        <v>6000</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71699,10 +71147,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5997</v>
+        <v>6001</v>
       </c>
       <c r="D3097" t="s">
-        <v>5998</v>
+        <v>6002</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71716,10 +71164,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5999</v>
+        <v>6003</v>
       </c>
       <c r="D3098" t="s">
-        <v>5999</v>
+        <v>6004</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71733,10 +71181,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>6000</v>
+        <v>6005</v>
       </c>
       <c r="D3099" t="s">
-        <v>6001</v>
+        <v>6006</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71750,10 +71198,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>6002</v>
+        <v>6007</v>
       </c>
       <c r="D3100" t="s">
-        <v>6003</v>
+        <v>6008</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71767,10 +71215,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>6004</v>
+        <v>6009</v>
       </c>
       <c r="D3101" t="s">
-        <v>6005</v>
+        <v>6010</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71784,10 +71232,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>6006</v>
+        <v>6011</v>
       </c>
       <c r="D3102" t="s">
-        <v>6007</v>
+        <v>6012</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71801,10 +71249,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>6008</v>
+        <v>6013</v>
       </c>
       <c r="D3103" t="s">
-        <v>6009</v>
+        <v>6014</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71818,10 +71266,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>6010</v>
+        <v>6015</v>
       </c>
       <c r="D3104" t="s">
-        <v>6011</v>
+        <v>6016</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71835,10 +71283,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>6012</v>
+        <v>6017</v>
       </c>
       <c r="D3105" t="s">
-        <v>6013</v>
+        <v>6018</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71852,10 +71300,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>6014</v>
+        <v>6019</v>
       </c>
       <c r="D3106" t="s">
-        <v>6015</v>
+        <v>6020</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71869,10 +71317,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>6016</v>
+        <v>6021</v>
       </c>
       <c r="D3107" t="s">
-        <v>6017</v>
+        <v>6022</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71886,10 +71334,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>6018</v>
+        <v>6023</v>
       </c>
       <c r="D3108" t="s">
-        <v>6019</v>
+        <v>6024</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71902,11 +71350,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>6020</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>6021</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71919,11 +71367,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>6026</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71937,10 +71385,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>6022</v>
+        <v>6027</v>
       </c>
       <c r="D3111" t="s">
-        <v>6022</v>
+        <v>6028</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71954,10 +71402,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>6023</v>
+        <v>6029</v>
       </c>
       <c r="D3112" t="s">
-        <v>6023</v>
+        <v>6030</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71971,10 +71419,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>6024</v>
+        <v>6031</v>
       </c>
       <c r="D3113" t="s">
-        <v>4594</v>
+        <v>6032</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71988,10 +71436,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>6025</v>
+        <v>6033</v>
       </c>
       <c r="D3114" t="s">
-        <v>6026</v>
+        <v>6034</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -72005,10 +71453,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>6027</v>
+        <v>6035</v>
       </c>
       <c r="D3115" t="s">
-        <v>6028</v>
+        <v>6036</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -72022,10 +71470,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>6029</v>
+        <v>6037</v>
       </c>
       <c r="D3116" t="s">
-        <v>6030</v>
+        <v>6038</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -72039,10 +71487,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>6031</v>
+        <v>6039</v>
       </c>
       <c r="D3117" t="s">
-        <v>6032</v>
+        <v>6040</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -72056,10 +71504,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>6033</v>
+        <v>6041</v>
       </c>
       <c r="D3118" t="s">
-        <v>6034</v>
+        <v>6042</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -72073,1678 +71521,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>6035</v>
+        <v>6043</v>
       </c>
       <c r="D3119" t="s">
-        <v>6036</v>
+        <v>6044</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>6037</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>6038</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>6039</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>6040</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>6041</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>6042</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>6043</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>6044</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>6045</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>6046</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6047</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6048</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6049</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6050</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6051</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6052</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6053</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6054</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6055</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6056</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6057</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6058</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6059</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6060</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6061</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6062</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6064</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6065</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6065</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6066</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6067</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6068</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6069</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6070</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6071</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6072</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6073</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6074</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6075</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6076</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6077</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6078</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6079</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6083</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6087</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>6092</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6093</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6094</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6095</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6096</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6097</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6098</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6099</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6100</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6101</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6102</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6103</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6104</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6105</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6106</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6107</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6108</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6109</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5928</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6111</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6112</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6113</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6114</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6114</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6115</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6117</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6115</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6118</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6119</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6120</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6121</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6122</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6122</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6123</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6124</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6125</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6126</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6127</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6128</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6129</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6130</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6131</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6132</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6133</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6134</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6135</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6136</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6137</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6138</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6139</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6140</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6141</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>6142</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6143</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6144</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6145</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6146</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6147</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6148</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6149</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6150</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6151</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6152</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6153</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6154</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6155</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6156</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6157</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1818</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6158</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6159</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6160</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6161</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6162</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6163</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6164</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6165</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6166</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6167</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6168</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6169</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6170</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6171</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6172</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6173</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6174</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6175</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6176</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6177</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6178</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6179</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6180</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6181</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6182</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6183</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6184</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6185</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6186</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6187</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6188</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6189</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6190</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6191</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6192</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6193</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6194</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6195</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6196</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6197</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6198</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6199</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6200</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>1308</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6201</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6202</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6203</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6204</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6205</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6206</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6207</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6208</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6209</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6210</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6211</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>6212</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6213</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6214</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6215</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6216</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6217</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6218</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6219</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6220</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6221</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6222</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6223</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6224</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6225</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6226</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6227</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6228</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
